--- a/saleScript/simple/definitionNeed.xlsx
+++ b/saleScript/simple/definitionNeed.xlsx
@@ -123,7 +123,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -156,7 +156,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="57.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -166,27 +166,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="89.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="213.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="70.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="114.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="61.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -196,7 +196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="54.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="66.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -204,7 +204,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
